--- a/biology/Histoire de la zoologie et de la botanique/Johann_Friedrich_Klotzsch/Johann_Friedrich_Klotzsch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Friedrich_Klotzsch/Johann_Friedrich_Klotzsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Friedrich Klotzsch est un pharmacien et botaniste prussien, né le 9 juin 1805 à Wittemberg et mort le 5 novembre 1860 à Berlin. Ses principaux travaux concernent la mycologie, avec l'étude et la description de nombreuses espèces de champignons.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mykologische Berichtigungen zu der nachgelassenen Sowerbyschen Sammlung, so wie zu den wenigen in Linneschen Herbarium vorhandenen Pilzen nebst Aufstellung einiger ausländischer Gattungen und Arten (1832)
 Herbarium vivum mycologicum sistens fungorum per totam Germaniam crescentium collectionem perfectam (1832)</t>
